--- a/data/outputs/management/90.xlsx
+++ b/data/outputs/management/90.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ64"/>
+  <dimension ref="A1:BR64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4500371</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1132,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4449423</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1331,6 +1346,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4582759</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1552,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4607562</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1733,6 +1758,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>6301734</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1942,6 +1972,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>50436242</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2143,6 +2178,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4796977</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2352,6 +2392,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>3942087</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2553,6 +2598,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4558507</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2766,6 +2816,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2971,6 +3022,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4436261</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3184,6 +3240,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4436262</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3393,6 +3454,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4484574</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3598,6 +3664,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>6300226</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3803,6 +3874,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4012,6 +4084,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4217,6 +4290,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>45949821</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4434,6 +4512,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>17457587</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4647,6 +4730,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>17281416</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4856,6 +4944,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4550378</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4939,7 +5032,7 @@
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t> [10-SSH-SKY-2603]</t>
+          <t>[10-SSH-SKY-2603]</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -5065,6 +5158,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4273314</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5266,6 +5364,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5467,6 +5566,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5672,6 +5772,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5881,6 +5982,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6082,6 +6184,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6291,6 +6394,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4061857</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6500,6 +6608,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>5721682</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6701,6 +6814,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6910,6 +7024,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>5103358</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7119,6 +7238,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>6392603</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7332,6 +7456,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7545,6 +7670,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>16276990</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7750,6 +7880,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3972160</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7963,6 +8098,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>3794018</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8180,6 +8320,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8393,6 +8534,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>7574174</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8610,6 +8756,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8819,6 +8966,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>8983493</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9032,6 +9184,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9245,6 +9398,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9454,6 +9608,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9667,6 +9822,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9872,6 +10028,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10085,6 +10242,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4340976</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10298,6 +10460,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10381,7 +10544,7 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr">
         <is>
-          <t> [DNR 132/2008]</t>
+          <t>[DNR 132/2008]</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -10507,6 +10670,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10716,6 +10880,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10929,6 +11094,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>3902446</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11130,6 +11300,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11331,6 +11502,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>50458829</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11536,6 +11712,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>4512383</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11745,6 +11926,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11946,6 +12128,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12147,6 +12330,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>2959875</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12348,6 +12536,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>2988590</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12549,6 +12742,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>3546333</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12750,6 +12948,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12959,6 +13158,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>4810787</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13156,6 +13360,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>3719471</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13365,6 +13574,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>4643713</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13574,6 +13788,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13783,6 +13998,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>19871571</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
